--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_20_38.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_20_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3632509.401619569</v>
+        <v>3629966.284650973</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -662,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>185.244996181401</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>12.9169039459368</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>118.4960408938904</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,10 +713,10 @@
         <v>212.651863114966</v>
       </c>
       <c r="U2" t="n">
-        <v>239.8079481415044</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>76.84999287972396</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -735,25 +735,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>19.02792212610276</v>
+        <v>110.5101541774377</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.90681807664346</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.90078060183517</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T3" t="n">
-        <v>195.0194028815133</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -798,13 +798,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -817,22 +817,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>22.29200224366429</v>
       </c>
       <c r="D4" t="n">
-        <v>93.44914586520973</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,22 +865,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>209.5881952042847</v>
+        <v>290.2905114143484</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>290.2905114143484</v>
       </c>
       <c r="F5" t="n">
-        <v>290.2905114143459</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.74220307430065</v>
+        <v>12.74220307430064</v>
       </c>
       <c r="H5" t="n">
-        <v>290.2905114143459</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>111.7608855401376</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>150.6718910157312</v>
       </c>
       <c r="T5" t="n">
-        <v>211.8871100493787</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1408101525697</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>124.5474438837933</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -972,28 +972,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>145.3986157821655</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.9735104574378</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>99.00406368337437</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>42.22754232370915</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>15.09724236790362</v>
+        <v>15.09724236790338</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>146.235897424241</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.6426402623424</v>
       </c>
       <c r="U6" t="n">
-        <v>153.1515702499637</v>
+        <v>225.8512500608582</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1057,19 +1057,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.8424117578468</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>152.0153623856348</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>125.6496154441976</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>204.0001972153978</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>260.275106411333</v>
       </c>
       <c r="X7" t="n">
-        <v>82.73430456355915</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>103.2789529957477</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>130.6264509097692</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>182.9661877488788</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>270.8259398684285</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>60.42721558712974</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>156.0046924576054</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1664,7 +1664,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1768,16 +1768,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>29.249233057517</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>1.294096136280004</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1898,7 +1898,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2008,16 +2008,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>192.8170508184371</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2138,10 +2138,10 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>141.6930519056948</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>10.63412424768211</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>55.30088041042183</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2488,10 +2488,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>51.3656974031032</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187857</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>199.9646153110755</v>
+        <v>119.8099036979372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2843,7 +2843,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576152</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2855,7 +2855,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.43437620021341</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2959,16 +2959,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>179.2499669408062</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>133.5908209162928</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>97.02629574295497</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3275,10 +3275,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>144.4286493356916</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>51.3656974031032</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>161.3373146097481</v>
       </c>
       <c r="H40" t="n">
-        <v>25.52471385612597</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3743,7 +3743,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.683041620682</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3797,7 +3797,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3898,7 +3898,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3907,16 +3907,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>41.02686156550217</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,10 +3946,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4043,7 +4043,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4135,13 +4135,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4153,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>41.74133133758713</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>91.87204320893622</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>345.9866426825725</v>
+        <v>268.3603872485082</v>
       </c>
       <c r="C2" t="n">
-        <v>345.9866426825725</v>
+        <v>268.3603872485082</v>
       </c>
       <c r="D2" t="n">
-        <v>158.8704849235816</v>
+        <v>268.3603872485082</v>
       </c>
       <c r="E2" t="n">
-        <v>158.8704849235816</v>
+        <v>268.3603872485082</v>
       </c>
       <c r="F2" t="n">
-        <v>151.9249841743781</v>
+        <v>261.4148864993048</v>
       </c>
       <c r="G2" t="n">
-        <v>138.8776064512096</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="H2" t="n">
-        <v>138.8776064512096</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="I2" t="n">
-        <v>19.18463585132035</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="J2" t="n">
-        <v>40.41888584470354</v>
+        <v>40.41888584470371</v>
       </c>
       <c r="K2" t="n">
-        <v>122.9820404192956</v>
+        <v>122.982040419296</v>
       </c>
       <c r="L2" t="n">
-        <v>262.310696260548</v>
+        <v>262.3106962605492</v>
       </c>
       <c r="M2" t="n">
-        <v>449.0101090859555</v>
+        <v>449.0101090859564</v>
       </c>
       <c r="N2" t="n">
-        <v>643.3443219779374</v>
+        <v>643.3443219779383</v>
       </c>
       <c r="O2" t="n">
-        <v>813.5133472948967</v>
+        <v>813.5133472948974</v>
       </c>
       <c r="P2" t="n">
-        <v>924.2476725444228</v>
+        <v>924.2476725444234</v>
       </c>
       <c r="Q2" t="n">
-        <v>959.2317925660177</v>
+        <v>959.2317925660183</v>
       </c>
       <c r="R2" t="n">
-        <v>959.2317925660177</v>
+        <v>959.2317925660182</v>
       </c>
       <c r="S2" t="n">
-        <v>803.0167550628457</v>
+        <v>803.0167550628462</v>
       </c>
       <c r="T2" t="n">
-        <v>588.2168933305568</v>
+        <v>588.2168933305572</v>
       </c>
       <c r="U2" t="n">
-        <v>345.9866426825725</v>
+        <v>345.9866426825728</v>
       </c>
       <c r="V2" t="n">
-        <v>345.9866426825725</v>
+        <v>268.3603872485082</v>
       </c>
       <c r="W2" t="n">
-        <v>345.9866426825725</v>
+        <v>268.3603872485082</v>
       </c>
       <c r="X2" t="n">
-        <v>345.9866426825725</v>
+        <v>268.3603872485082</v>
       </c>
       <c r="Y2" t="n">
-        <v>345.9866426825725</v>
+        <v>268.3603872485082</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>594.0271597060373</v>
+        <v>130.8110542123686</v>
       </c>
       <c r="C3" t="n">
-        <v>574.8070363463376</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="D3" t="n">
-        <v>425.8726266850863</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="E3" t="n">
-        <v>266.6351716796308</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="F3" t="n">
-        <v>120.1006137065158</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="G3" t="n">
-        <v>120.1006137065158</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="H3" t="n">
-        <v>19.18463585132035</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="I3" t="n">
-        <v>19.18463585132035</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="J3" t="n">
-        <v>19.18463585132035</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="K3" t="n">
-        <v>86.79245551467721</v>
+        <v>94.99670283953481</v>
       </c>
       <c r="L3" t="n">
-        <v>224.022053530371</v>
+        <v>232.2263008552285</v>
       </c>
       <c r="M3" t="n">
-        <v>403.5193898849756</v>
+        <v>469.636169515318</v>
       </c>
       <c r="N3" t="n">
-        <v>602.17613153764</v>
+        <v>668.2929111679823</v>
       </c>
       <c r="O3" t="n">
-        <v>761.6884442064004</v>
+        <v>827.8052238367427</v>
       </c>
       <c r="P3" t="n">
-        <v>936.4948513640409</v>
+        <v>936.4948513640413</v>
       </c>
       <c r="Q3" t="n">
-        <v>959.2317925660177</v>
+        <v>959.2317925660182</v>
       </c>
       <c r="R3" t="n">
-        <v>959.2317925660177</v>
+        <v>938.1198929682049</v>
       </c>
       <c r="S3" t="n">
-        <v>959.2317925660177</v>
+        <v>788.6531038308397</v>
       </c>
       <c r="T3" t="n">
-        <v>762.2424967261053</v>
+        <v>788.6531038308397</v>
       </c>
       <c r="U3" t="n">
-        <v>762.2424967261053</v>
+        <v>788.6531038308397</v>
       </c>
       <c r="V3" t="n">
-        <v>762.2424967261053</v>
+        <v>788.6531038308397</v>
       </c>
       <c r="W3" t="n">
-        <v>762.2424967261053</v>
+        <v>546.4228531828553</v>
       </c>
       <c r="X3" t="n">
-        <v>762.2424967261053</v>
+        <v>338.5713529773225</v>
       </c>
       <c r="Y3" t="n">
-        <v>762.2424967261053</v>
+        <v>130.8110542123686</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>731.2422416680004</v>
+        <v>41.70180983481964</v>
       </c>
       <c r="C4" t="n">
-        <v>731.2422416680004</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="D4" t="n">
-        <v>636.8491650364754</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="E4" t="n">
-        <v>488.9360714540823</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="F4" t="n">
-        <v>342.0461239561719</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="G4" t="n">
-        <v>173.4392789515553</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="H4" t="n">
-        <v>19.18463585132035</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="I4" t="n">
-        <v>19.18463585132035</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="J4" t="n">
-        <v>19.18463585132035</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="K4" t="n">
         <v>120.2325654469301</v>
@@ -4495,43 +4495,43 @@
         <v>305.0655603477483</v>
       </c>
       <c r="M4" t="n">
-        <v>450.4476363223394</v>
+        <v>510.3351610669861</v>
       </c>
       <c r="N4" t="n">
-        <v>656.2710011584436</v>
+        <v>716.1585259030902</v>
       </c>
       <c r="O4" t="n">
-        <v>830.3658965470423</v>
+        <v>830.3658965470428</v>
       </c>
       <c r="P4" t="n">
-        <v>955.8134731456579</v>
+        <v>955.8134731456583</v>
       </c>
       <c r="Q4" t="n">
-        <v>959.2317925660177</v>
+        <v>959.2317925660182</v>
       </c>
       <c r="R4" t="n">
-        <v>959.2317925660177</v>
+        <v>959.2317925660182</v>
       </c>
       <c r="S4" t="n">
-        <v>959.2317925660177</v>
+        <v>751.7915078184235</v>
       </c>
       <c r="T4" t="n">
-        <v>959.2317925660177</v>
+        <v>526.1623111307885</v>
       </c>
       <c r="U4" t="n">
-        <v>959.2317925660177</v>
+        <v>526.1623111307885</v>
       </c>
       <c r="V4" t="n">
-        <v>959.2317925660177</v>
+        <v>283.932060482804</v>
       </c>
       <c r="W4" t="n">
-        <v>959.2317925660177</v>
+        <v>41.70180983481964</v>
       </c>
       <c r="X4" t="n">
-        <v>731.2422416680004</v>
+        <v>41.70180983481964</v>
       </c>
       <c r="Y4" t="n">
-        <v>731.2422416680004</v>
+        <v>41.70180983481964</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>735.4294140880266</v>
+        <v>336.2623926609867</v>
       </c>
       <c r="C5" t="n">
-        <v>735.4294140880266</v>
+        <v>336.2623926609867</v>
       </c>
       <c r="D5" t="n">
-        <v>735.4294140880266</v>
+        <v>336.2623926609867</v>
       </c>
       <c r="E5" t="n">
-        <v>735.4294140880266</v>
+        <v>43.03965385861461</v>
       </c>
       <c r="F5" t="n">
-        <v>442.206675285657</v>
+        <v>36.09415310941115</v>
       </c>
       <c r="G5" t="n">
-        <v>429.3357630893937</v>
+        <v>23.22324091314787</v>
       </c>
       <c r="H5" t="n">
-        <v>136.113024287024</v>
+        <v>23.22324091314787</v>
       </c>
       <c r="I5" t="n">
-        <v>23.22324091314767</v>
+        <v>23.22324091314787</v>
       </c>
       <c r="J5" t="n">
-        <v>59.13673382951924</v>
+        <v>59.13673382952129</v>
       </c>
       <c r="K5" t="n">
-        <v>163.7002683444948</v>
+        <v>163.7002683444975</v>
       </c>
       <c r="L5" t="n">
-        <v>330.3223409084626</v>
+        <v>330.3223409084666</v>
       </c>
       <c r="M5" t="n">
-        <v>547.3909387162847</v>
+        <v>547.3909387162898</v>
       </c>
       <c r="N5" t="n">
-        <v>772.585741753702</v>
+        <v>772.5857417537088</v>
       </c>
       <c r="O5" t="n">
-        <v>971.8955472416883</v>
+        <v>971.8955472416962</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.500854171409</v>
+        <v>1107.500854171418</v>
       </c>
       <c r="Q5" t="n">
-        <v>1161.162045657384</v>
+        <v>1161.162045657393</v>
       </c>
       <c r="R5" t="n">
-        <v>1161.162045657384</v>
+        <v>1161.162045657393</v>
       </c>
       <c r="S5" t="n">
-        <v>1161.162045657384</v>
+        <v>1008.968216348574</v>
       </c>
       <c r="T5" t="n">
-        <v>947.1346617691223</v>
+        <v>1008.968216348574</v>
       </c>
       <c r="U5" t="n">
-        <v>947.1346617691223</v>
+        <v>755.2906303358773</v>
       </c>
       <c r="V5" t="n">
-        <v>947.1346617691223</v>
+        <v>755.2906303358773</v>
       </c>
       <c r="W5" t="n">
-        <v>947.1346617691223</v>
+        <v>755.2906303358773</v>
       </c>
       <c r="X5" t="n">
-        <v>947.1346617691223</v>
+        <v>629.4851314633588</v>
       </c>
       <c r="Y5" t="n">
-        <v>947.1346617691223</v>
+        <v>629.4851314633588</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>783.4534513188263</v>
+        <v>170.0905295820019</v>
       </c>
       <c r="C6" t="n">
-        <v>609.0004220376993</v>
+        <v>170.0905295820019</v>
       </c>
       <c r="D6" t="n">
-        <v>609.0004220376993</v>
+        <v>170.0905295820019</v>
       </c>
       <c r="E6" t="n">
-        <v>449.7629670322439</v>
+        <v>23.22324091314787</v>
       </c>
       <c r="F6" t="n">
-        <v>303.2284090591288</v>
+        <v>23.22324091314787</v>
       </c>
       <c r="G6" t="n">
-        <v>165.8814287990907</v>
+        <v>23.22324091314787</v>
       </c>
       <c r="H6" t="n">
-        <v>65.87732406840945</v>
+        <v>23.22324091314787</v>
       </c>
       <c r="I6" t="n">
-        <v>23.22324091314767</v>
+        <v>23.22324091314787</v>
       </c>
       <c r="J6" t="n">
-        <v>150.6253492920938</v>
+        <v>25.79522430508962</v>
       </c>
       <c r="K6" t="n">
-        <v>235.7315125838837</v>
+        <v>235.7315125838887</v>
       </c>
       <c r="L6" t="n">
-        <v>393.053729889495</v>
+        <v>393.0537298895008</v>
       </c>
       <c r="M6" t="n">
-        <v>595.9982052478071</v>
+        <v>595.9982052478138</v>
       </c>
       <c r="N6" t="n">
-        <v>818.7226619044675</v>
+        <v>818.7226619044751</v>
       </c>
       <c r="O6" t="n">
-        <v>1000.252231792098</v>
+        <v>1000.252231792106</v>
       </c>
       <c r="P6" t="n">
-        <v>1126.612649313224</v>
+        <v>1126.612649313233</v>
       </c>
       <c r="Q6" t="n">
-        <v>1161.162045657384</v>
+        <v>1161.162045657393</v>
       </c>
       <c r="R6" t="n">
-        <v>1145.912305891824</v>
+        <v>1145.912305891834</v>
       </c>
       <c r="S6" t="n">
-        <v>1145.912305891824</v>
+        <v>998.1992781905808</v>
       </c>
       <c r="T6" t="n">
-        <v>1145.912305891824</v>
+        <v>801.5905506528612</v>
       </c>
       <c r="U6" t="n">
-        <v>991.2137500837803</v>
+        <v>573.4579748338126</v>
       </c>
       <c r="V6" t="n">
-        <v>991.2137500837803</v>
+        <v>338.3058666020699</v>
       </c>
       <c r="W6" t="n">
-        <v>991.2137500837803</v>
+        <v>338.3058666020699</v>
       </c>
       <c r="X6" t="n">
-        <v>991.2137500837803</v>
+        <v>338.3058666020699</v>
       </c>
       <c r="Y6" t="n">
-        <v>783.4534513188263</v>
+        <v>338.3058666020699</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>790.2214811466774</v>
+        <v>23.22324091314787</v>
       </c>
       <c r="C7" t="n">
-        <v>790.2214811466774</v>
+        <v>23.22324091314787</v>
       </c>
       <c r="D7" t="n">
-        <v>640.1048417343417</v>
+        <v>23.22324091314787</v>
       </c>
       <c r="E7" t="n">
-        <v>492.1917481519486</v>
+        <v>23.22324091314787</v>
       </c>
       <c r="F7" t="n">
-        <v>345.3018006540382</v>
+        <v>23.22324091314787</v>
       </c>
       <c r="G7" t="n">
-        <v>176.7741120097485</v>
+        <v>23.22324091314787</v>
       </c>
       <c r="H7" t="n">
-        <v>23.22324091314767</v>
+        <v>23.22324091314787</v>
       </c>
       <c r="I7" t="n">
-        <v>23.22324091314767</v>
+        <v>23.22324091314787</v>
       </c>
       <c r="J7" t="n">
-        <v>23.22324091314767</v>
+        <v>23.22324091314787</v>
       </c>
       <c r="K7" t="n">
-        <v>133.2846894279146</v>
+        <v>133.2846894279152</v>
       </c>
       <c r="L7" t="n">
-        <v>329.6518852993038</v>
+        <v>329.6518852993049</v>
       </c>
       <c r="M7" t="n">
-        <v>547.0826837276986</v>
+        <v>547.0826837277002</v>
       </c>
       <c r="N7" t="n">
-        <v>764.7780801730496</v>
+        <v>764.7780801730516</v>
       </c>
       <c r="O7" t="n">
-        <v>949.8387182967858</v>
+        <v>949.8387182967883</v>
       </c>
       <c r="P7" t="n">
-        <v>1084.669382195907</v>
+        <v>1084.66938219591</v>
       </c>
       <c r="Q7" t="n">
-        <v>1094.584064899863</v>
+        <v>1094.584064899866</v>
       </c>
       <c r="R7" t="n">
-        <v>1094.584064899863</v>
+        <v>967.6652614208788</v>
       </c>
       <c r="S7" t="n">
-        <v>1094.584064899863</v>
+        <v>761.6044561528001</v>
       </c>
       <c r="T7" t="n">
-        <v>1094.584064899863</v>
+        <v>761.6044561528001</v>
       </c>
       <c r="U7" t="n">
-        <v>1094.584064899863</v>
+        <v>761.6044561528001</v>
       </c>
       <c r="V7" t="n">
-        <v>1094.584064899863</v>
+        <v>506.9199679469133</v>
       </c>
       <c r="W7" t="n">
-        <v>1094.584064899863</v>
+        <v>244.015820056678</v>
       </c>
       <c r="X7" t="n">
-        <v>1011.014060290208</v>
+        <v>244.015820056678</v>
       </c>
       <c r="Y7" t="n">
-        <v>790.2214811466774</v>
+        <v>23.22324091314787</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>944.3110907974335</v>
+        <v>983.6388807631536</v>
       </c>
       <c r="C8" t="n">
-        <v>944.3110907974335</v>
+        <v>614.6763638227419</v>
       </c>
       <c r="D8" t="n">
-        <v>944.3110907974335</v>
+        <v>614.6763638227419</v>
       </c>
       <c r="E8" t="n">
-        <v>944.3110907974335</v>
+        <v>228.8881112244977</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3251860078259</v>
+        <v>221.9426104752942</v>
       </c>
       <c r="G8" t="n">
         <v>117.6204357321147</v>
@@ -4799,16 +4799,16 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926626</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2184.059060190806</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="V8" t="n">
-        <v>1852.996172847235</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="W8" t="n">
-        <v>1852.996172847235</v>
+        <v>1747.243971000045</v>
       </c>
       <c r="X8" t="n">
-        <v>1721.050262837367</v>
+        <v>1373.778212738965</v>
       </c>
       <c r="Y8" t="n">
-        <v>1330.910930861555</v>
+        <v>983.6388807631536</v>
       </c>
     </row>
     <row r="9">
@@ -4878,31 +4878,31 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
         <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>870.329241545892</v>
+        <v>932.4978103100997</v>
       </c>
       <c r="M9" t="n">
-        <v>1233.591260505112</v>
+        <v>1295.75982926932</v>
       </c>
       <c r="N9" t="n">
-        <v>1867.770244284151</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O9" t="n">
-        <v>2199.840679460312</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>370.2996089082458</v>
+        <v>388.1694341876314</v>
       </c>
       <c r="C10" t="n">
-        <v>201.3634259803388</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="D10" t="n">
-        <v>51.24678656800311</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="E10" t="n">
-        <v>51.24678656800311</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800311</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1349.048382530606</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1126.069901725341</v>
       </c>
       <c r="U10" t="n">
-        <v>1347.327782578335</v>
+        <v>836.9515642291789</v>
       </c>
       <c r="V10" t="n">
-        <v>1092.643294372448</v>
+        <v>836.9515642291789</v>
       </c>
       <c r="W10" t="n">
-        <v>819.0817389497932</v>
+        <v>836.9515642291789</v>
       </c>
       <c r="X10" t="n">
-        <v>591.0921880517759</v>
+        <v>608.9620133311615</v>
       </c>
       <c r="Y10" t="n">
-        <v>370.2996089082458</v>
+        <v>388.1694341876314</v>
       </c>
     </row>
     <row r="11">
@@ -5027,7 +5027,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5036,13 +5036,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,10 +5051,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5072,10 +5072,10 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852889</v>
@@ -5115,28 +5115,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>803.8641191832229</v>
+        <v>634.4644740681601</v>
       </c>
       <c r="C13" t="n">
-        <v>634.927936255316</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429803</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>985.5125840134626</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5258,28 +5258,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,22 +5355,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>868.6673633290469</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>699.73118040114</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>549.6145409888043</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
         <v>235.5284942057738</v>
@@ -5467,19 +5467,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>2043.199616443682</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1788.515128237795</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1499.097958200834</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1271.108407302817</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>1050.315828159287</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.79311422913</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5786,7 +5786,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
         <v>3467.980956852889</v>
@@ -5829,25 +5829,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.913939313768</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
-        <v>1964.511902868375</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>789.7592298206043</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>620.8230468926974</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D22" t="n">
-        <v>470.7064074803617</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E22" t="n">
-        <v>322.7933138979686</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2253.366709591041</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1964.291482935239</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1709.606994729352</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1420.189824692392</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1192.200273794374</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>971.4076946508441</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5969,13 +5969,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -6066,16 +6066,16 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>680.0291294438176</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
         <v>1307.627092998424</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>983.3556038098237</v>
+        <v>639.6425904082687</v>
       </c>
       <c r="C25" t="n">
-        <v>814.4194208819168</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D25" t="n">
-        <v>664.3027814695811</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E25" t="n">
-        <v>516.389687887188</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F25" t="n">
-        <v>369.4997403892776</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,43 +6200,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6251,25 +6251,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M27" t="n">
-        <v>1072.713683962606</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,7 +6358,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>789.7592298206043</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="C28" t="n">
         <v>620.8230468926974</v>
@@ -6370,16 +6370,16 @@
         <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1192.200273794374</v>
+        <v>1023.264090866467</v>
       </c>
       <c r="Y28" t="n">
-        <v>971.4076946508441</v>
+        <v>802.4715117229372</v>
       </c>
     </row>
     <row r="29">
@@ -6440,16 +6440,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6461,28 +6461,28 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6491,16 +6491,16 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
         <v>3094.515198591809</v>
@@ -6537,28 +6537,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M30" t="n">
-        <v>1176.533952578166</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N30" t="n">
-        <v>1804.131916132773</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O30" t="n">
-        <v>2356.04164637206</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>788.0191461778176</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C31" t="n">
-        <v>788.0191461778176</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>637.9025067654818</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>489.9894131830887</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6646,25 +6646,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1099.149479058937</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y31" t="n">
-        <v>878.3568999154069</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="32">
@@ -6692,7 +6692,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192548</v>
@@ -6713,13 +6713,13 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>429.5088224239596</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>924.8344286397182</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M33" t="n">
-        <v>1522.21291626627</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N33" t="n">
-        <v>2149.810879820877</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O33" t="n">
-        <v>2149.810879820877</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>800.5007694647277</v>
+        <v>781.3544215660705</v>
       </c>
       <c r="C34" t="n">
-        <v>631.5645865368208</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="D34" t="n">
-        <v>481.447947124485</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E34" t="n">
-        <v>333.5348535420919</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>333.5348535420919</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>982.1492342949674</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="35">
@@ -6923,7 +6923,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7023,19 +7023,19 @@
         <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>983.3556038098237</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C37" t="n">
-        <v>814.4194208819168</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D37" t="n">
-        <v>664.3027814695811</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="E37" t="n">
-        <v>516.389687887188</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F37" t="n">
-        <v>369.4997403892776</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7148,43 +7148,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7193,7 +7193,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7254,22 +7254,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>738.7889117913853</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1366.386875345992</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O39" t="n">
-        <v>1918.296605585279</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P39" t="n">
-        <v>2341.919755080347</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>733.4550657171301</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C40" t="n">
-        <v>564.5188827892232</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D40" t="n">
-        <v>414.4022433768874</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E40" t="n">
-        <v>266.4891497944943</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="F40" t="n">
-        <v>119.599202296584</v>
+        <v>398.4954786600648</v>
       </c>
       <c r="G40" t="n">
-        <v>119.599202296584</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7360,22 +7360,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7403,28 +7403,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7436,25 +7436,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>352.5519571452614</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>916.3099000622261</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>747.3737171343192</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>597.2570777219835</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>449.3439841395904</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F43" t="n">
-        <v>302.45403664168</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G43" t="n">
-        <v>135.2579373565599</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H43" t="n">
-        <v>135.2579373565599</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7594,25 +7594,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7646,19 +7646,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7667,7 +7667,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1268.578514636218</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>1896.176478190825</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C46" t="n">
-        <v>580.8993044876688</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D46" t="n">
-        <v>430.7826650753331</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E46" t="n">
-        <v>282.8695714929399</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F46" t="n">
-        <v>135.9796239950296</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G46" t="n">
-        <v>135.9796239950296</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>135.9796239950296</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>823.4946010684509</v>
       </c>
     </row>
   </sheetData>
@@ -8055,16 +8055,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>6.233205181928469</v>
+        <v>6.233205181928483</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>8.287118509957182</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>58.49750737927775</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8073,7 +8073,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>66.78462588923415</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8143,13 +8143,13 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>118.0172116724288</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
         <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
-        <v>163.0416663658825</v>
+        <v>102.5492171288661</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.74236624506807</v>
+        <v>54.74236624506761</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>2.581221505606166</v>
+        <v>128.6722568460189</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8535,13 +8535,13 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>280.1079373569283</v>
+        <v>342.9044714621886</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>249.387732507165</v>
+        <v>162.0073097921338</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>119.4047645948075</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>69.70496293143177</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23656,16 +23656,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>117.1847295890522</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>284.8903782529641</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23896,16 +23896,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>32.89260457060001</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>6.922421112517554</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>206.7713260796062</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>124.5310997715155</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24376,10 +24376,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>114.1584408891656</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>25.74504007796165</v>
+        <v>105.8997516911</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,10 +24835,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>90.39760398172389</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>46.24115926564446</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>68.49784254931387</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>2.005313310877568</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25546,25 +25546,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>4.186823682520753</v>
       </c>
       <c r="H40" t="n">
-        <v>114.7699989900979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25600,7 +25600,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25795,16 +25795,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>40.23897475306337</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,10 +25834,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26023,13 +26023,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>39.5245049809784</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>675118.6184529123</v>
+        <v>675118.6184529124</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>657916.1590522513</v>
+        <v>657916.1590522511</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>657916.1590522513</v>
+        <v>657916.1590522511</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>657916.1590522513</v>
+        <v>657916.1590522511</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>657916.1590522511</v>
+        <v>657916.1590522513</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>657916.1590522513</v>
+        <v>657916.1590522511</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>657916.1590522513</v>
+        <v>657916.1590522511</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>657916.1590522513</v>
+        <v>657916.1590522511</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>657916.1590522513</v>
+        <v>657916.1590522511</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>657916.1590522513</v>
+        <v>657916.1590522511</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>657916.1590522513</v>
+        <v>657916.1590522511</v>
       </c>
     </row>
   </sheetData>
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710688</v>
+        <v>779989.6813710687</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.6813710687</v>
+        <v>779989.681371069</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710695</v>
+        <v>779989.6813710692</v>
       </c>
       <c r="E2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="F2" t="n">
         <v>766789.269705506</v>
       </c>
-      <c r="F2" t="n">
-        <v>766789.2697055059</v>
-      </c>
       <c r="G2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="H2" t="n">
         <v>766789.2697055059</v>
       </c>
       <c r="I2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="J2" t="n">
+        <v>766789.2697055055</v>
+      </c>
+      <c r="K2" t="n">
+        <v>766789.2697055057</v>
+      </c>
+      <c r="L2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="M2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="N2" t="n">
+        <v>766789.2697055055</v>
+      </c>
+      <c r="O2" t="n">
         <v>766789.2697055059</v>
-      </c>
-      <c r="J2" t="n">
-        <v>766789.2697055059</v>
-      </c>
-      <c r="K2" t="n">
-        <v>766789.2697055059</v>
-      </c>
-      <c r="L2" t="n">
-        <v>766789.2697055059</v>
-      </c>
-      <c r="M2" t="n">
-        <v>766789.2697055062</v>
-      </c>
-      <c r="N2" t="n">
-        <v>766789.2697055059</v>
-      </c>
-      <c r="O2" t="n">
-        <v>766789.269705506</v>
       </c>
       <c r="P2" t="n">
         <v>766789.2697055059</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>652246.4444800889</v>
+        <v>652246.4444800888</v>
       </c>
       <c r="C3" t="n">
-        <v>55881.32342210926</v>
+        <v>55881.32342211177</v>
       </c>
       <c r="D3" t="n">
-        <v>363279.8866276245</v>
+        <v>363279.8866276221</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245458</v>
+        <v>507485.4416245461</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,10 +26390,10 @@
         <v>62744.31078353579</v>
       </c>
       <c r="K3" t="n">
-        <v>12992.59634440464</v>
+        <v>12992.59634440533</v>
       </c>
       <c r="L3" t="n">
-        <v>88656.33991666271</v>
+        <v>88656.33991666204</v>
       </c>
       <c r="M3" t="n">
         <v>132607.2937289267</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>5.349964149853145e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>261062.8075060264</v>
+        <v>261062.8075060265</v>
       </c>
       <c r="C4" t="n">
-        <v>246054.660343104</v>
+        <v>246054.6603431033</v>
       </c>
       <c r="D4" t="n">
         <v>143951.0939828189</v>
@@ -26427,7 +26427,7 @@
         <v>12996.86414683044</v>
       </c>
       <c r="F4" t="n">
-        <v>12996.86414683046</v>
+        <v>12996.86414683045</v>
       </c>
       <c r="G4" t="n">
         <v>12996.86414683045</v>
@@ -26436,16 +26436,16 @@
         <v>12996.86414683045</v>
       </c>
       <c r="I4" t="n">
+        <v>12996.86414683046</v>
+      </c>
+      <c r="J4" t="n">
+        <v>12996.86414683048</v>
+      </c>
+      <c r="K4" t="n">
+        <v>12996.86414683048</v>
+      </c>
+      <c r="L4" t="n">
         <v>12996.86414683044</v>
-      </c>
-      <c r="J4" t="n">
-        <v>12996.86414683044</v>
-      </c>
-      <c r="K4" t="n">
-        <v>12996.86414683046</v>
-      </c>
-      <c r="L4" t="n">
-        <v>12996.86414683048</v>
       </c>
       <c r="M4" t="n">
         <v>12996.86414683046</v>
@@ -26454,10 +26454,10 @@
         <v>12996.86414683044</v>
       </c>
       <c r="O4" t="n">
-        <v>12996.86414683045</v>
+        <v>12996.86414683048</v>
       </c>
       <c r="P4" t="n">
-        <v>12996.86414683046</v>
+        <v>12996.86414683044</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>61145.70223437328</v>
       </c>
       <c r="C5" t="n">
-        <v>65162.40123302699</v>
+        <v>65162.40123302718</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26522,46 +26522,46 @@
         <v>-194465.2728494198</v>
       </c>
       <c r="C6" t="n">
-        <v>412891.2963728285</v>
+        <v>412891.2963728268</v>
       </c>
       <c r="D6" t="n">
-        <v>179820.9283207814</v>
+        <v>179820.9283207835</v>
       </c>
       <c r="E6" t="n">
-        <v>145184.4341102227</v>
+        <v>145149.6961847866</v>
       </c>
       <c r="F6" t="n">
-        <v>652669.8757347683</v>
+        <v>652635.1378093332</v>
       </c>
       <c r="G6" t="n">
-        <v>652669.8757347685</v>
+        <v>652635.1378093327</v>
       </c>
       <c r="H6" t="n">
-        <v>652669.8757347685</v>
+        <v>652635.1378093328</v>
       </c>
       <c r="I6" t="n">
-        <v>652669.8757347685</v>
+        <v>652635.1378093326</v>
       </c>
       <c r="J6" t="n">
-        <v>589925.5649512326</v>
+        <v>589890.8270257964</v>
       </c>
       <c r="K6" t="n">
-        <v>639677.2793903637</v>
+        <v>639642.5414649271</v>
       </c>
       <c r="L6" t="n">
-        <v>564013.5358181057</v>
+        <v>563978.7978926708</v>
       </c>
       <c r="M6" t="n">
-        <v>520062.5820058417</v>
+        <v>520027.8440804058</v>
       </c>
       <c r="N6" t="n">
-        <v>652669.8757347685</v>
+        <v>652635.1378093323</v>
       </c>
       <c r="O6" t="n">
-        <v>652669.8757347686</v>
+        <v>652635.1378093327</v>
       </c>
       <c r="P6" t="n">
-        <v>652669.8757347683</v>
+        <v>652635.1378093328</v>
       </c>
     </row>
   </sheetData>
@@ -26707,22 +26707,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.318586784683342e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>3.266863152920001e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.266863152920001e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.36886840263309e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>593.4761003380646</v>
+        <v>593.4761003380645</v>
       </c>
       <c r="C3" t="n">
-        <v>636.9329421575576</v>
+        <v>636.9329421575594</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>239.8079481415044</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="C4" t="n">
-        <v>290.2905114143459</v>
+        <v>290.2905114143484</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.318586784683342e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.266863152920001e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.687455187316432e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>593.4761003380646</v>
+        <v>593.4761003380645</v>
       </c>
       <c r="C3" t="n">
-        <v>43.45684181949298</v>
+        <v>43.45684181949491</v>
       </c>
       <c r="D3" t="n">
-        <v>297.1319499599816</v>
+        <v>297.1319499599797</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241345</v>
+        <v>433.9106082241349</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>239.8079481415044</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="C4" t="n">
-        <v>50.4825632728415</v>
+        <v>50.48256327284383</v>
       </c>
       <c r="D4" t="n">
-        <v>350.2943206856929</v>
+        <v>350.2943206856904</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>239.8079481415044</v>
+        <v>239.8079481415043</v>
       </c>
       <c r="K4" t="n">
-        <v>50.48256327284139</v>
+        <v>50.48256327284405</v>
       </c>
       <c r="L4" t="n">
-        <v>350.2943206856928</v>
+        <v>350.2943206856904</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.318586784683342e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>239.8079481415044</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="K4" t="n">
-        <v>50.4825632728415</v>
+        <v>50.48256327284383</v>
       </c>
       <c r="L4" t="n">
-        <v>350.2943206856929</v>
+        <v>350.2943206856904</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,7 +27382,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>169.438045439282</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>173.1089558044322</v>
       </c>
       <c r="H2" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>118.4960408938904</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,10 +27433,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>11.34683808079621</v>
+        <v>11.34683808079609</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>250.9022655904109</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27455,28 +27455,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>153.680576862213</v>
+        <v>62.19834481087803</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.0669836643703</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.90681807664346</v>
       </c>
       <c r="I3" t="n">
-        <v>45.4458084395867</v>
+        <v>45.44580843958671</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.90078060183515</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.9721212459916</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U3" t="n">
         <v>225.8573996139459</v>
@@ -27518,13 +27518,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>11.88703501941507</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27537,28 +27537,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>144.9548188549635</v>
       </c>
       <c r="D4" t="n">
-        <v>55.16632715300263</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I4" t="n">
         <v>123.266557879417</v>
       </c>
       <c r="J4" t="n">
-        <v>17.69584188176904</v>
+        <v>17.69584188176906</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.1731816677913</v>
+        <v>129.1731816677914</v>
       </c>
       <c r="S4" t="n">
-        <v>205.3658819001187</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.260654658097</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>12.32969518232346</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>46.71505019508646</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>173.1456464591959</v>
+        <v>92.4433302491322</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,19 +27622,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>91.63985865791341</v>
       </c>
       <c r="F5" t="n">
-        <v>116.5855343273655</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>22.96121735922591</v>
+        <v>313.2517287735718</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>111.7608855401373</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>150.6718910157314</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>211.8871100493787</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1408101525697</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,7 +27679,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>245.1836567946758</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27692,28 +27692,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>12.24646467323549</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.9735104574378</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.00406368337433</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>42.22754232370902</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,16 +27743,16 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>146.2358974242411</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.6426402623424</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>72.69967981089448</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27761,7 +27761,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27777,25 +27777,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.8424117578468</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>152.0153623856348</v>
       </c>
       <c r="I7" t="n">
-        <v>120.9099147197632</v>
+        <v>120.9099147197631</v>
       </c>
       <c r="J7" t="n">
-        <v>12.15545075340516</v>
+        <v>12.15545075340492</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>125.6496154441977</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>204.0001972153979</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>223.0380733165757</v>
@@ -27831,13 +27831,13 @@
         <v>286.2563802146393</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>26.24789192525805</v>
       </c>
       <c r="X7" t="n">
-        <v>142.975350825478</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>308.2687497772063</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>239.1046497686998</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28014,7 +28014,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,10 +28023,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>11.69627261285873</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>15.69705846816254</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28384,7 +28384,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28858,10 +28858,10 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>9.285372470912988e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29563,7 +29563,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29575,7 +29575,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -29797,7 +29797,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -29995,10 +29995,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
         <v>5.115907697472721e-13</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30463,7 +30463,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>9.426059932593489e-13</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -30517,7 +30517,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -30763,7 +30763,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -31045,37 +31045,37 @@
         <v>24.43391804055156</v>
       </c>
       <c r="I2" t="n">
-        <v>91.97984867651554</v>
+        <v>91.97984867651553</v>
       </c>
       <c r="J2" t="n">
-        <v>202.49464189374</v>
+        <v>202.4946418937399</v>
       </c>
       <c r="K2" t="n">
-        <v>303.4869768779019</v>
+        <v>303.4869768779018</v>
       </c>
       <c r="L2" t="n">
-        <v>376.5024309712528</v>
+        <v>376.5024309712527</v>
       </c>
       <c r="M2" t="n">
         <v>418.9314987074821</v>
       </c>
       <c r="N2" t="n">
-        <v>425.7102483359667</v>
+        <v>425.7102483359666</v>
       </c>
       <c r="O2" t="n">
-        <v>401.9861157822516</v>
+        <v>401.9861157822515</v>
       </c>
       <c r="P2" t="n">
-        <v>343.0858495426698</v>
+        <v>343.0858495426697</v>
       </c>
       <c r="Q2" t="n">
         <v>257.6431848457574</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411496</v>
+        <v>149.8691179411495</v>
       </c>
       <c r="S2" t="n">
-        <v>54.36718245810513</v>
+        <v>54.36718245810512</v>
       </c>
       <c r="T2" t="n">
         <v>10.44398644916533</v>
@@ -31121,10 +31121,10 @@
         <v>1.276533498840365</v>
       </c>
       <c r="H3" t="n">
-        <v>12.32862615985301</v>
+        <v>12.328626159853</v>
       </c>
       <c r="I3" t="n">
-        <v>43.95082441182838</v>
+        <v>43.95082441182837</v>
       </c>
       <c r="J3" t="n">
         <v>120.6044214847382</v>
@@ -31133,34 +31133,34 @@
         <v>206.1321659070427</v>
       </c>
       <c r="L3" t="n">
-        <v>277.170135351282</v>
+        <v>277.1701353512819</v>
       </c>
       <c r="M3" t="n">
-        <v>323.4444746842452</v>
+        <v>323.4444746842451</v>
       </c>
       <c r="N3" t="n">
-        <v>332.0050874900651</v>
+        <v>332.005087490065</v>
       </c>
       <c r="O3" t="n">
-        <v>303.7197925947075</v>
+        <v>303.7197925947074</v>
       </c>
       <c r="P3" t="n">
-        <v>243.7619099671572</v>
+        <v>243.7619099671571</v>
       </c>
       <c r="Q3" t="n">
         <v>162.9483813607456</v>
       </c>
       <c r="R3" t="n">
-        <v>79.25705355080798</v>
+        <v>79.25705355080797</v>
       </c>
       <c r="S3" t="n">
         <v>23.71104985784624</v>
       </c>
       <c r="T3" t="n">
-        <v>5.145325813308313</v>
+        <v>5.145325813308312</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08398246702897144</v>
+        <v>0.08398246702897143</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,13 +31200,13 @@
         <v>1.070202803888313</v>
       </c>
       <c r="H4" t="n">
-        <v>9.515075838207009</v>
+        <v>9.515075838207007</v>
       </c>
       <c r="I4" t="n">
         <v>32.18391704784128</v>
       </c>
       <c r="J4" t="n">
-        <v>75.66333823490373</v>
+        <v>75.66333823490372</v>
       </c>
       <c r="K4" t="n">
         <v>124.338107579024</v>
@@ -31218,7 +31218,7 @@
         <v>167.7591540676925</v>
       </c>
       <c r="N4" t="n">
-        <v>163.770216344109</v>
+        <v>163.7702163441089</v>
       </c>
       <c r="O4" t="n">
         <v>151.2683017714136</v>
@@ -31227,16 +31227,16 @@
         <v>129.4361645720919</v>
       </c>
       <c r="Q4" t="n">
-        <v>89.61489115104776</v>
+        <v>89.61489115104774</v>
       </c>
       <c r="R4" t="n">
-        <v>48.12020970937814</v>
+        <v>48.12020970937813</v>
       </c>
       <c r="S4" t="n">
-        <v>18.6507161368536</v>
+        <v>18.65071613685359</v>
       </c>
       <c r="T4" t="n">
-        <v>4.572684707522791</v>
+        <v>4.57268470752279</v>
       </c>
       <c r="U4" t="n">
         <v>0.05837469839390805</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.560534440834401</v>
+        <v>2.560534440834408</v>
       </c>
       <c r="H5" t="n">
-        <v>26.22307334219531</v>
+        <v>26.22307334219538</v>
       </c>
       <c r="I5" t="n">
-        <v>98.71500403026832</v>
+        <v>98.7150040302686</v>
       </c>
       <c r="J5" t="n">
-        <v>217.3221599977689</v>
+        <v>217.3221599977695</v>
       </c>
       <c r="K5" t="n">
-        <v>325.7095828782891</v>
+        <v>325.7095828782901</v>
       </c>
       <c r="L5" t="n">
-        <v>404.071538771975</v>
+        <v>404.0715387719761</v>
       </c>
       <c r="M5" t="n">
-        <v>449.6074431341638</v>
+        <v>449.607443134165</v>
       </c>
       <c r="N5" t="n">
-        <v>456.8825616141845</v>
+        <v>456.8825616141858</v>
       </c>
       <c r="O5" t="n">
-        <v>431.4212472681374</v>
+        <v>431.4212472681386</v>
       </c>
       <c r="P5" t="n">
-        <v>368.2080532600381</v>
+        <v>368.2080532600392</v>
       </c>
       <c r="Q5" t="n">
-        <v>276.508913597656</v>
+        <v>276.5089135976568</v>
       </c>
       <c r="R5" t="n">
-        <v>160.8431715690641</v>
+        <v>160.8431715690645</v>
       </c>
       <c r="S5" t="n">
-        <v>58.34817857051396</v>
+        <v>58.34817857051412</v>
       </c>
       <c r="T5" t="n">
-        <v>11.20873951475259</v>
+        <v>11.20873951475263</v>
       </c>
       <c r="U5" t="n">
-        <v>0.204842755266752</v>
+        <v>0.2048427552667526</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.37000670577286</v>
+        <v>1.370006705772864</v>
       </c>
       <c r="H6" t="n">
-        <v>13.2313805531221</v>
+        <v>13.23138055312213</v>
       </c>
       <c r="I6" t="n">
-        <v>47.16909052770593</v>
+        <v>47.16909052770606</v>
       </c>
       <c r="J6" t="n">
-        <v>129.4355896888297</v>
+        <v>129.4355896888301</v>
       </c>
       <c r="K6" t="n">
-        <v>221.2260389756113</v>
+        <v>221.2260389756119</v>
       </c>
       <c r="L6" t="n">
-        <v>297.4657103916028</v>
+        <v>297.4657103916036</v>
       </c>
       <c r="M6" t="n">
-        <v>347.1284534758689</v>
+        <v>347.1284534758698</v>
       </c>
       <c r="N6" t="n">
-        <v>356.3159107264246</v>
+        <v>356.3159107264256</v>
       </c>
       <c r="O6" t="n">
-        <v>325.9594463511418</v>
+        <v>325.9594463511427</v>
       </c>
       <c r="P6" t="n">
-        <v>261.6111927892051</v>
+        <v>261.6111927892059</v>
       </c>
       <c r="Q6" t="n">
-        <v>174.8801542316373</v>
+        <v>174.8801542316378</v>
       </c>
       <c r="R6" t="n">
-        <v>85.06059178473951</v>
+        <v>85.06059178473976</v>
       </c>
       <c r="S6" t="n">
-        <v>25.44727367959674</v>
+        <v>25.44727367959682</v>
       </c>
       <c r="T6" t="n">
-        <v>5.5220884324792</v>
+        <v>5.522088432479216</v>
       </c>
       <c r="U6" t="n">
-        <v>0.09013202011663554</v>
+        <v>0.09013202011663581</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.148567600611989</v>
+        <v>1.148567600611992</v>
       </c>
       <c r="H7" t="n">
-        <v>10.21181012180478</v>
+        <v>10.21181012180481</v>
       </c>
       <c r="I7" t="n">
-        <v>34.5405602074951</v>
+        <v>34.5405602074952</v>
       </c>
       <c r="J7" t="n">
-        <v>81.20372936326761</v>
+        <v>81.20372936326785</v>
       </c>
       <c r="K7" t="n">
-        <v>133.4426721438292</v>
+        <v>133.4426721438296</v>
       </c>
       <c r="L7" t="n">
-        <v>170.760677640077</v>
+        <v>170.7606776400775</v>
       </c>
       <c r="M7" t="n">
-        <v>180.0431921577502</v>
+        <v>180.0431921577507</v>
       </c>
       <c r="N7" t="n">
-        <v>175.7621674645602</v>
+        <v>175.7621674645607</v>
       </c>
       <c r="O7" t="n">
-        <v>162.3448095846837</v>
+        <v>162.3448095846842</v>
       </c>
       <c r="P7" t="n">
-        <v>138.914030532199</v>
+        <v>138.9140305321994</v>
       </c>
       <c r="Q7" t="n">
-        <v>96.1768742657912</v>
+        <v>96.17687426579147</v>
       </c>
       <c r="R7" t="n">
-        <v>51.64377593297178</v>
+        <v>51.64377593297193</v>
       </c>
       <c r="S7" t="n">
-        <v>20.01640082157438</v>
+        <v>20.01640082157444</v>
       </c>
       <c r="T7" t="n">
-        <v>4.90751611170577</v>
+        <v>4.907516111705784</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0626491418515631</v>
+        <v>0.06264914185156328</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31516,43 +31516,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,7 +31607,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31616,25 +31616,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31707,13 +31707,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>163.1438255932938</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,13 +32075,13 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32093,7 +32093,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32312,13 +32312,13 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>533.6019216797995</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,7 +32327,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32336,7 +32336,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32549,28 +32549,28 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>247.3820194983584</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>407.2177391203972</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
@@ -32786,19 +32786,19 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>577.7447198439388</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>528.7932908500043</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -33020,34 +33020,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>463.4318227833011</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,10 +33257,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33275,13 +33275,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>351.5042614518788</v>
       </c>
       <c r="P30" t="n">
-        <v>295.9743940159484</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>126.8376266666667</v>
@@ -33503,25 +33503,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>460.9249101897664</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>268.6704608606964</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33743,10 +33743,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>270.9486956727256</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33758,7 +33758,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33907,7 +33907,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
         <v>790.8204499236507</v>
@@ -33974,25 +33974,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>569.57231719539</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>316.2462973459355</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34211,28 +34211,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>246.2467565146294</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34454,13 +34454,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>339.9772972286971</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
@@ -34469,7 +34469,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,22 +34696,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>21.4487373670537</v>
+        <v>21.44873736705364</v>
       </c>
       <c r="K2" t="n">
-        <v>83.39712583292135</v>
+        <v>83.39712583292123</v>
       </c>
       <c r="L2" t="n">
-        <v>140.7360160012656</v>
+        <v>140.7360160012655</v>
       </c>
       <c r="M2" t="n">
         <v>188.5852654802094</v>
       </c>
       <c r="N2" t="n">
-        <v>196.2971847393758</v>
+        <v>196.2971847393757</v>
       </c>
       <c r="O2" t="n">
-        <v>171.8879043605649</v>
+        <v>171.8879043605648</v>
       </c>
       <c r="P2" t="n">
         <v>111.8528537874002</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>68.2907269326837</v>
+        <v>76.57784544264085</v>
       </c>
       <c r="L3" t="n">
         <v>138.6157555714078</v>
       </c>
       <c r="M3" t="n">
-        <v>181.3104407622268</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="N3" t="n">
-        <v>200.6633754067318</v>
+        <v>200.6633754067317</v>
       </c>
       <c r="O3" t="n">
         <v>161.123548150263</v>
       </c>
       <c r="P3" t="n">
-        <v>176.5721284420611</v>
+        <v>109.7875025528269</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.96660727472408</v>
+        <v>22.96660727472405</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,22 +34860,22 @@
         <v>102.0686157531411</v>
       </c>
       <c r="L4" t="n">
-        <v>186.6999948493114</v>
+        <v>186.6999948493113</v>
       </c>
       <c r="M4" t="n">
-        <v>146.8505817925163</v>
+        <v>207.3430310295331</v>
       </c>
       <c r="N4" t="n">
-        <v>207.9023887233376</v>
+        <v>207.9023887233375</v>
       </c>
       <c r="O4" t="n">
-        <v>175.8534296854533</v>
+        <v>115.3609804484369</v>
       </c>
       <c r="P4" t="n">
         <v>126.7147238369854</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.452847899353372</v>
+        <v>3.452847899353358</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>36.27625547108261</v>
+        <v>36.27625547108323</v>
       </c>
       <c r="K5" t="n">
-        <v>105.6197318333085</v>
+        <v>105.6197318333095</v>
       </c>
       <c r="L5" t="n">
-        <v>168.3051238019877</v>
+        <v>168.3051238019889</v>
       </c>
       <c r="M5" t="n">
-        <v>219.261209906891</v>
+        <v>219.2612099068923</v>
       </c>
       <c r="N5" t="n">
-        <v>227.4694980175936</v>
+        <v>227.4694980175949</v>
       </c>
       <c r="O5" t="n">
-        <v>201.3230358464507</v>
+        <v>201.3230358464519</v>
       </c>
       <c r="P5" t="n">
-        <v>136.9750575047686</v>
+        <v>136.9750575047696</v>
       </c>
       <c r="Q5" t="n">
-        <v>54.20322372320655</v>
+        <v>54.20322372320734</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>128.6889983625719</v>
+        <v>2.597963022163384</v>
       </c>
       <c r="K6" t="n">
-        <v>85.96582150685849</v>
+        <v>212.0568568472718</v>
       </c>
       <c r="L6" t="n">
-        <v>158.9113306117286</v>
+        <v>158.9113306117294</v>
       </c>
       <c r="M6" t="n">
-        <v>204.9944195538505</v>
+        <v>204.9944195538515</v>
       </c>
       <c r="N6" t="n">
-        <v>224.9741986430913</v>
+        <v>224.9741986430923</v>
       </c>
       <c r="O6" t="n">
-        <v>183.3632019066973</v>
+        <v>183.3632019066982</v>
       </c>
       <c r="P6" t="n">
-        <v>127.6367853748749</v>
+        <v>127.6367853748757</v>
       </c>
       <c r="Q6" t="n">
-        <v>34.89838014561582</v>
+        <v>34.89838014561633</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>111.1731803179464</v>
+        <v>111.1731803179468</v>
       </c>
       <c r="L7" t="n">
-        <v>198.3507029003931</v>
+        <v>198.3507029003936</v>
       </c>
       <c r="M7" t="n">
-        <v>219.6270691195908</v>
+        <v>219.6270691195913</v>
       </c>
       <c r="N7" t="n">
-        <v>219.8943398437888</v>
+        <v>219.8943398437893</v>
       </c>
       <c r="O7" t="n">
-        <v>186.9299374987234</v>
+        <v>186.9299374987239</v>
       </c>
       <c r="P7" t="n">
-        <v>136.1925897970925</v>
+        <v>136.1925897970929</v>
       </c>
       <c r="Q7" t="n">
-        <v>10.01483101409681</v>
+        <v>10.01483101409708</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>577.7882979947785</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>640.5848321000389</v>
+        <v>553.2044093850077</v>
       </c>
       <c r="O9" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35340,7 +35340,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35349,7 +35349,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35492,22 +35492,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>20.54758114884936</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35741,7 +35741,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>395.0475418999253</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,7 +35975,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -35984,7 +35984,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>265.0837051983789</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>37.00975247789211</v>
@@ -36434,19 +36434,19 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>439.1903400640646</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>386.659256927986</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>320.8355783388566</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,10 +36905,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36923,13 +36923,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>208.9080170074344</v>
       </c>
       <c r="P30" t="n">
-        <v>161.9999866016181</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789211</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>322.3705304098922</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>134.6960534463662</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37391,10 +37391,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>128.8146617507074</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37406,7 +37406,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37555,7 +37555,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
@@ -37622,25 +37622,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>426.9760727509455</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>176.264523259914</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789211</v>
@@ -37859,28 +37859,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>108.4053175402704</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38102,13 +38102,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>197.8432633066788</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
@@ -38117,7 +38117,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
